--- a/data/远澜翠柏1号净值20250110.xlsx
+++ b/data/远澜翠柏1号净值20250110.xlsx
@@ -6579,11 +6579,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -7198,7 +7199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7583,11 +7584,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E1544"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -24585,7 +24586,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C1 A5:C1544" numberStoredAsText="1"/>
+    <ignoredError sqref="A5:C1544 A1:C1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>